--- a/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Chi Square.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Chi Square.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{B961277E-22F8-44EC-935A-9B0D9260E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A1DD57-253E-4402-91FB-47C2A99D0595}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5B15834B-CDB7-4038-BCD9-AC0EE263BB04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{5B15834B-CDB7-4038-BCD9-AC0EE263BB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Chi-square All" sheetId="18" r:id="rId1"/>
@@ -542,16 +542,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0.97962962962962963</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -625,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -633,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.25208333333333338</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -673,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0.25606060606060604</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -737,7 +737,7 @@
         <v>7.4999999999999969E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -769,7 +769,7 @@
         <v>7.4999999999999969E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>SUM(B3:B11)</f>
         <v>36</v>
@@ -803,12 +803,12 @@
         <v>1.6377735690235691</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -900,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f>SUM(B16:B24)</f>
         <v>31.058823529411768</v>
@@ -956,7 +956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1.6377735690235691</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0.89664407902840981</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -982,7 +982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1000,18 +1000,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111DA7EC-2FAB-47E9-84B1-B9C3FB97FF65}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="15" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="15" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -4171,16 +4171,16 @@
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>SUM(B3)</f>
         <v>12</v>
@@ -4248,7 +4248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7">
         <f>SUM(G3:G6)</f>
         <v>0</v>
@@ -4262,12 +4262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4292,19 +4292,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f>SUM(B12:B15)</f>
         <v>12</v>
@@ -4318,7 +4318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4366,16 +4366,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1.4236602628918098</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0.59323992488805422</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0.18573877874005348</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>43</v>
@@ -4519,12 +4519,12 @@
         <v>2.2026389665199178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <f>SUM(B11:B13)</f>
         <v>43</v>
@@ -4597,7 +4597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>2.2026389665199178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>0.33243215551829075</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4645,16 +4645,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1.4236602628918098</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0.59323992488805422</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0.18573877874005348</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>43</v>
       </c>
@@ -4774,12 +4774,12 @@
         <v>2.2026389665199178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>43</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>2.2026389665199178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0.33243215551829075</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4886,16 +4886,16 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>6.4516129032257605E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1.9999999999999857E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1.9999999999999857E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>45</v>
       </c>
@@ -5015,12 +5015,12 @@
         <v>1.0451612903225733E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>45</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1.0451612903225733E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.9947878243206596</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5127,16 +5127,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>16</v>
       </c>
@@ -5256,12 +5256,12 @@
         <v>2.4242424242424239</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>16</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>2.4242424242424239</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.29756541014756543</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5364,20 +5364,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0F2825-FB7A-49B7-9BE8-4AFD05391614}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>0.329607843137255</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0.32669683257918558</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>2.0395424836601306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>20</v>
       </c>
@@ -5497,12 +5497,12 @@
         <v>2.6958471593765712</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>20</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>2.6958471593765712</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0.25977911163567524</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5609,16 +5609,16 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0.33013468013468039</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>5.8796296296296263E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>5.8796296296296263E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0.38703703703703707</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B3:B6)</f>
         <v>20</v>
@@ -5798,12 +5798,12 @@
         <v>0.44772727272727286</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>A3</f>
         <v>nav_distractions_traffic_notifications</v>
@@ -5829,7 +5829,7 @@
         <v>11.407407407407408</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A15" si="5">A4</f>
         <v>nav_distractions_route_changes</v>
@@ -5847,7 +5847,7 @@
         <v>8.2962962962962958</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="5"/>
         <v>nav_distractions_navigation_failure</v>
@@ -5865,7 +5865,7 @@
         <v>8.2962962962962958</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="5"/>
         <v>nav_distractions_traffic_camera</v>
@@ -5883,7 +5883,7 @@
         <v>1.037037037037037</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f>SUM(B12:B15)</f>
         <v>20.74074074074074</v>
@@ -5897,7 +5897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0.44772727272727286</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0.93021590594827774</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6142,7 +6142,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B427C97-5888-4C52-8E2F-20CDF1E1EBD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9795BF8E-6DBC-471F-ABE2-81CBC157CD39}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Chi Square.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_distractions_1-5 Chi Square.xlsx
@@ -5938,10 +5938,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d068a515c1ed1831a1655483f43bd136">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61a36bc01df55011d34c3851fbde1e65" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5954,10 +5954,12 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5965,7 +5967,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -6000,28 +6002,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -6142,7 +6156,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9795BF8E-6DBC-471F-ABE2-81CBC157CD39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C91F8AA-86BC-42F5-A8E2-2E82DD810E1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
